--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-file-banner.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromcode/sample90-file-banner.xlsx
@@ -127,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
@@ -135,23 +135,41 @@
     <xf numFmtId="49" fontId="2" fillId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -159,31 +177,55 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="6">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="7">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="10">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="11">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="12">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="ValueTextStyle" xfId="3"/>
-    <cellStyle name="NumericStandardStyle" xfId="4"/>
-    <cellStyle name="NumericStandardWithBorderStyle" xfId="5"/>
-    <cellStyle name="NumericWithoutDecimalsStyle" xfId="6"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="7"/>
+    <cellStyle name="HeaderStyle_Alternate" xfId="3"/>
+    <cellStyle name="ValueTextStyle" xfId="4"/>
+    <cellStyle name="ValueTextStyle_Alternate" xfId="5"/>
+    <cellStyle name="NumericStandardStyle" xfId="6"/>
+    <cellStyle name="NumericStandardStyle_Alternate" xfId="7"/>
+    <cellStyle name="NumericStandardWithBorderStyle" xfId="8"/>
+    <cellStyle name="NumericStandardWithBorderStyle_Alternate" xfId="9"/>
+    <cellStyle name="NumericWithoutDecimalsStyle" xfId="10"/>
+    <cellStyle name="NumericWithoutDecimalsStyle_Alternate" xfId="11"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="12"/>
+    <cellStyle name="NumericWithoutDecimalsWithBorderStyle_Alternate" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -259,100 +301,100 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>37</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>3.9900000095367432</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>147.6300048828125</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>12.100000381469727</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>60.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>15.369999885559082</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <v>184.44000244140625</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>20</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>8</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>23.479999542236328</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <v>164.36000061035156</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <f>SUBTOTAL(109,F4:F8)</f>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="8">
         <f>SUBTOTAL(109,G4:G8)</f>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
         <f>SUBTOTAL(109,H4:H8)</f>
       </c>
     </row>
